--- a/excel/bank-accounts.xlsx
+++ b/excel/bank-accounts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_kaleemmi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_kaleemmi\general-files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6C76A8-A74F-45DF-A05D-B542C2C08876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6139DF1B-39B7-41DF-B10C-3460F90B03B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,10 +91,10 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>Sales Group</t>
-  </si>
-  <si>
-    <t>Account Type</t>
+    <t>SalesGroup</t>
+  </si>
+  <si>
+    <t>AccountType</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,8 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1305,7 +1305,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E351" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E355">
     <sortCondition ref="A30:A355"/>
   </sortState>
